--- a/pruebaPotencial.xlsx
+++ b/pruebaPotencial.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76B433-5422-4D48-B74C-65975B37A205}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -391,15 +391,15 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -407,31 +407,15 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>8.5</v>
-      </c>
-      <c r="B7">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
